--- a/Final_year_project/Rcode/Datasource/Goil.xlsx
+++ b/Final_year_project/Rcode/Datasource/Goil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/_Typesetting/Final_year_project/Rcode/Datasource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A835F27D-D76B-174D-8429-73A9E3293A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6107F25-AB17-044E-9B50-018C025D94BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="440" windowWidth="22880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,14 +77,14 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,7 +103,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60B541B1-DB7F-514C-BA48-61E29F2E1C53}" name="Table1" displayName="Table1" ref="A1:D76" totalsRowShown="0">
   <autoFilter ref="A1:D76" xr:uid="{1624A705-C509-5049-A276-C458E8F04BF0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
-    <sortCondition ref="A1:A76"/>
+    <sortCondition ref="B1:B76"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{76C62429-03FD-1145-898A-F8BB0B0CED60}" name="Year"/>
@@ -410,13 +410,13 @@
         <v>2018</v>
       </c>
       <c r="B2" s="1">
-        <v>43435</v>
+        <v>43101</v>
       </c>
       <c r="C2">
-        <v>4.9800000000000004</v>
+        <v>4.63</v>
       </c>
       <c r="D2">
-        <v>4.9800000000000004</v>
+        <v>4.63</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -427,13 +427,13 @@
         <v>2018</v>
       </c>
       <c r="B3" s="1">
-        <v>43405</v>
+        <v>43132</v>
       </c>
       <c r="C3">
-        <v>5.1100000000000003</v>
+        <v>4.59</v>
       </c>
       <c r="D3">
-        <v>5.125</v>
+        <v>4.58</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -444,13 +444,13 @@
         <v>2018</v>
       </c>
       <c r="B4" s="1">
-        <v>43374</v>
+        <v>43160</v>
       </c>
       <c r="C4">
-        <v>5.21</v>
+        <v>4.59</v>
       </c>
       <c r="D4">
-        <v>5.21</v>
+        <v>4.59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -461,13 +461,13 @@
         <v>2018</v>
       </c>
       <c r="B5" s="1">
-        <v>43344</v>
+        <v>43191</v>
       </c>
       <c r="C5">
-        <v>5.0949999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="D5">
-        <v>5.0949999999999998</v>
+        <v>4.54</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -478,13 +478,13 @@
         <v>2018</v>
       </c>
       <c r="B6" s="1">
-        <v>43313</v>
+        <v>43221</v>
       </c>
       <c r="C6">
-        <v>4.9000000000000004</v>
+        <v>4.67</v>
       </c>
       <c r="D6">
-        <v>4.9400000000000004</v>
+        <v>4.66</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -495,13 +495,13 @@
         <v>2018</v>
       </c>
       <c r="B7" s="1">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="C7">
-        <v>4.8899999999999997</v>
+        <v>4.87</v>
       </c>
       <c r="D7">
-        <v>4.8899999999999997</v>
+        <v>4.87</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -512,13 +512,13 @@
         <v>2018</v>
       </c>
       <c r="B8" s="1">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="C8">
-        <v>4.87</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="D8">
-        <v>4.87</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -529,13 +529,13 @@
         <v>2018</v>
       </c>
       <c r="B9" s="1">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="C9">
-        <v>4.67</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D9">
-        <v>4.66</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -546,13 +546,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="1">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="C10">
-        <v>4.55</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="D10">
-        <v>4.54</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -563,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="B11" s="1">
-        <v>43160</v>
+        <v>43374</v>
       </c>
       <c r="C11">
-        <v>4.59</v>
+        <v>5.21</v>
       </c>
       <c r="D11">
-        <v>4.59</v>
+        <v>5.21</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -580,13 +580,13 @@
         <v>2018</v>
       </c>
       <c r="B12" s="1">
-        <v>43132</v>
+        <v>43405</v>
       </c>
       <c r="C12">
-        <v>4.59</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D12">
-        <v>4.58</v>
+        <v>5.125</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -596,13 +596,13 @@
         <v>2018</v>
       </c>
       <c r="B13" s="1">
-        <v>43101</v>
+        <v>43435</v>
       </c>
       <c r="C13">
-        <v>4.63</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D13">
-        <v>4.63</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -612,13 +612,13 @@
         <v>2019</v>
       </c>
       <c r="B14" s="1">
-        <v>43800</v>
+        <v>43466</v>
       </c>
       <c r="C14">
-        <v>5.41</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D14">
-        <v>5.41</v>
+        <v>4.93</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -628,13 +628,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="1">
-        <v>43770</v>
+        <v>43497</v>
       </c>
       <c r="C15">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="D15">
-        <v>5.36</v>
+        <v>5.13</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -644,13 +644,13 @@
         <v>2019</v>
       </c>
       <c r="B16" s="1">
-        <v>43739</v>
+        <v>43525</v>
       </c>
       <c r="C16">
-        <v>5.35</v>
+        <v>5.24</v>
       </c>
       <c r="D16">
-        <v>5.37</v>
+        <v>5.24</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -660,13 +660,13 @@
         <v>2019</v>
       </c>
       <c r="B17" s="1">
-        <v>43709</v>
+        <v>43556</v>
       </c>
       <c r="C17">
-        <v>5.38</v>
+        <v>5.2050000000000001</v>
       </c>
       <c r="D17">
-        <v>5.34</v>
+        <v>5.2149999999999999</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -676,13 +676,13 @@
         <v>2019</v>
       </c>
       <c r="B18" s="1">
-        <v>43678</v>
+        <v>43586</v>
       </c>
       <c r="C18">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D18">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -692,7 +692,7 @@
         <v>2019</v>
       </c>
       <c r="B19" s="1">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="C19">
         <v>5.1950000000000003</v>
@@ -708,7 +708,7 @@
         <v>2019</v>
       </c>
       <c r="B20" s="1">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="C20">
         <v>5.1950000000000003</v>
@@ -724,13 +724,13 @@
         <v>2019</v>
       </c>
       <c r="B21" s="1">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="C21">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D21">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -740,13 +740,13 @@
         <v>2019</v>
       </c>
       <c r="B22" s="1">
-        <v>43556</v>
+        <v>43709</v>
       </c>
       <c r="C22">
-        <v>5.2050000000000001</v>
+        <v>5.38</v>
       </c>
       <c r="D22">
-        <v>5.2149999999999999</v>
+        <v>5.34</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -756,13 +756,13 @@
         <v>2019</v>
       </c>
       <c r="B23" s="1">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="C23">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="D23">
-        <v>5.24</v>
+        <v>5.37</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -772,13 +772,13 @@
         <v>2019</v>
       </c>
       <c r="B24" s="1">
-        <v>43497</v>
+        <v>43770</v>
       </c>
       <c r="C24">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="D24">
-        <v>5.13</v>
+        <v>5.36</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -788,13 +788,13 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>43466</v>
+        <v>43800</v>
       </c>
       <c r="C25">
-        <v>4.9000000000000004</v>
+        <v>5.41</v>
       </c>
       <c r="D25">
-        <v>4.93</v>
+        <v>5.41</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -804,13 +804,13 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>44166</v>
+        <v>43831</v>
       </c>
       <c r="C26">
-        <v>4.79</v>
+        <v>5.4</v>
       </c>
       <c r="D26">
-        <v>4.79</v>
+        <v>5.41</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -820,13 +820,13 @@
         <v>2020</v>
       </c>
       <c r="B27" s="1">
-        <v>44136</v>
+        <v>43862</v>
       </c>
       <c r="C27">
-        <v>4.82</v>
+        <v>5.4</v>
       </c>
       <c r="D27">
-        <v>4.82</v>
+        <v>5.41</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -836,13 +836,13 @@
         <v>2020</v>
       </c>
       <c r="B28" s="1">
-        <v>44105</v>
+        <v>43891</v>
       </c>
       <c r="C28">
         <v>4.8</v>
       </c>
       <c r="D28">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -852,13 +852,13 @@
         <v>2020</v>
       </c>
       <c r="B29" s="1">
-        <v>44075</v>
+        <v>43922</v>
       </c>
       <c r="C29">
-        <v>4.7699999999999996</v>
+        <v>4.2649999999999997</v>
       </c>
       <c r="D29">
-        <v>4.7699999999999996</v>
+        <v>4.2649999999999997</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -868,13 +868,13 @@
         <v>2020</v>
       </c>
       <c r="B30" s="1">
-        <v>44044</v>
+        <v>43952</v>
       </c>
       <c r="C30">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D30">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -884,13 +884,13 @@
         <v>2020</v>
       </c>
       <c r="B31" s="1">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="C31">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="D31">
-        <v>4.8</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -900,13 +900,13 @@
         <v>2020</v>
       </c>
       <c r="B32" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="C32">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D32">
-        <v>4.5199999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -916,13 +916,13 @@
         <v>2020</v>
       </c>
       <c r="B33" s="1">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="C33">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="D33">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -932,13 +932,13 @@
         <v>2020</v>
       </c>
       <c r="B34" s="1">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="C34">
-        <v>4.2649999999999997</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="D34">
-        <v>4.2649999999999997</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -948,13 +948,13 @@
         <v>2020</v>
       </c>
       <c r="B35" s="1">
-        <v>43891</v>
+        <v>44105</v>
       </c>
       <c r="C35">
         <v>4.8</v>
       </c>
       <c r="D35">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -964,13 +964,13 @@
         <v>2020</v>
       </c>
       <c r="B36" s="1">
-        <v>43862</v>
+        <v>44136</v>
       </c>
       <c r="C36">
-        <v>5.4</v>
+        <v>4.82</v>
       </c>
       <c r="D36">
-        <v>5.41</v>
+        <v>4.82</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -980,13 +980,13 @@
         <v>2020</v>
       </c>
       <c r="B37" s="1">
-        <v>43831</v>
+        <v>44166</v>
       </c>
       <c r="C37">
-        <v>5.4</v>
+        <v>4.79</v>
       </c>
       <c r="D37">
-        <v>5.41</v>
+        <v>4.79</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -996,13 +996,13 @@
         <v>2021</v>
       </c>
       <c r="B38" s="1">
-        <v>44531</v>
+        <v>44197</v>
       </c>
       <c r="C38">
-        <v>6.65</v>
+        <v>5.03</v>
       </c>
       <c r="D38">
-        <v>6.65</v>
+        <v>5.03</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1012,13 +1012,13 @@
         <v>2021</v>
       </c>
       <c r="B39" s="1">
-        <v>44501</v>
+        <v>44228</v>
       </c>
       <c r="C39">
-        <v>6.85</v>
+        <v>5.36</v>
       </c>
       <c r="D39">
-        <v>6.85</v>
+        <v>5.26</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1028,13 +1028,13 @@
         <v>2021</v>
       </c>
       <c r="B40" s="1">
-        <v>44470</v>
+        <v>44256</v>
       </c>
       <c r="C40">
-        <v>6.85</v>
+        <v>5.36</v>
       </c>
       <c r="D40">
-        <v>6.85</v>
+        <v>5.36</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1044,13 +1044,13 @@
         <v>2021</v>
       </c>
       <c r="B41" s="1">
-        <v>44440</v>
+        <v>44287</v>
       </c>
       <c r="C41">
-        <v>6.38</v>
+        <v>5.64</v>
       </c>
       <c r="D41">
-        <v>6.38</v>
+        <v>5.64</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1060,13 +1060,13 @@
         <v>2021</v>
       </c>
       <c r="B42" s="1">
-        <v>44409</v>
+        <v>44317</v>
       </c>
       <c r="C42">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="D42">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1076,13 +1076,13 @@
         <v>2021</v>
       </c>
       <c r="B43" s="1">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="C43">
-        <v>6.29</v>
+        <v>6.3</v>
       </c>
       <c r="D43">
-        <v>6.29</v>
+        <v>6.3</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1092,13 +1092,13 @@
         <v>2021</v>
       </c>
       <c r="B44" s="1">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="C44">
-        <v>6.3</v>
+        <v>6.29</v>
       </c>
       <c r="D44">
-        <v>6.3</v>
+        <v>6.29</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1108,13 +1108,13 @@
         <v>2021</v>
       </c>
       <c r="B45" s="1">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="C45">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="D45">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1124,13 +1124,13 @@
         <v>2021</v>
       </c>
       <c r="B46" s="1">
-        <v>44287</v>
+        <v>44440</v>
       </c>
       <c r="C46">
-        <v>5.64</v>
+        <v>6.38</v>
       </c>
       <c r="D46">
-        <v>5.64</v>
+        <v>6.38</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1140,13 +1140,13 @@
         <v>2021</v>
       </c>
       <c r="B47" s="1">
-        <v>44256</v>
+        <v>44470</v>
       </c>
       <c r="C47">
-        <v>5.36</v>
+        <v>6.85</v>
       </c>
       <c r="D47">
-        <v>5.36</v>
+        <v>6.85</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1156,13 +1156,13 @@
         <v>2021</v>
       </c>
       <c r="B48" s="1">
-        <v>44228</v>
+        <v>44501</v>
       </c>
       <c r="C48">
-        <v>5.36</v>
+        <v>6.85</v>
       </c>
       <c r="D48">
-        <v>5.26</v>
+        <v>6.85</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1172,13 +1172,13 @@
         <v>2021</v>
       </c>
       <c r="B49" s="1">
-        <v>44197</v>
+        <v>44531</v>
       </c>
       <c r="C49">
-        <v>5.03</v>
+        <v>6.65</v>
       </c>
       <c r="D49">
-        <v>5.03</v>
+        <v>6.65</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1188,13 +1188,13 @@
         <v>2022</v>
       </c>
       <c r="B50" s="1">
-        <v>44896</v>
+        <v>44562</v>
       </c>
       <c r="C50">
-        <v>14.07</v>
+        <v>6.75</v>
       </c>
       <c r="D50">
-        <v>16.937000000000001</v>
+        <v>6.75</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1204,13 +1204,13 @@
         <v>2022</v>
       </c>
       <c r="B51" s="1">
-        <v>44866</v>
+        <v>44593</v>
       </c>
       <c r="C51">
-        <v>17.023</v>
+        <v>7.3929999999999998</v>
       </c>
       <c r="D51">
-        <v>21.253</v>
+        <v>7.3929999999999998</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1220,13 +1220,13 @@
         <v>2022</v>
       </c>
       <c r="B52" s="1">
-        <v>44835</v>
+        <v>44621</v>
       </c>
       <c r="C52">
-        <v>12.73</v>
+        <v>9.14</v>
       </c>
       <c r="D52">
-        <v>15.231999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1236,13 +1236,13 @@
         <v>2022</v>
       </c>
       <c r="B53" s="1">
-        <v>44805</v>
+        <v>44652</v>
       </c>
       <c r="C53">
-        <v>11.25</v>
+        <v>9.35</v>
       </c>
       <c r="D53">
-        <v>14.5</v>
+        <v>10.433</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1252,13 +1252,13 @@
         <v>2022</v>
       </c>
       <c r="B54" s="1">
-        <v>44774</v>
+        <v>44682</v>
       </c>
       <c r="C54">
-        <v>11.05</v>
+        <v>9.5</v>
       </c>
       <c r="D54">
-        <v>13.36</v>
+        <v>11.263</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1268,13 +1268,13 @@
         <v>2022</v>
       </c>
       <c r="B55" s="1">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="C55">
-        <v>11.355</v>
+        <v>10.545</v>
       </c>
       <c r="D55">
-        <v>13.77</v>
+        <v>12.795</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1284,13 +1284,13 @@
         <v>2022</v>
       </c>
       <c r="B56" s="1">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="C56">
-        <v>10.545</v>
+        <v>11.355</v>
       </c>
       <c r="D56">
-        <v>12.795</v>
+        <v>13.77</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1300,13 +1300,13 @@
         <v>2022</v>
       </c>
       <c r="B57" s="1">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="C57">
-        <v>9.5</v>
+        <v>11.05</v>
       </c>
       <c r="D57">
-        <v>11.263</v>
+        <v>13.36</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1316,13 +1316,13 @@
         <v>2022</v>
       </c>
       <c r="B58" s="1">
-        <v>44652</v>
+        <v>44805</v>
       </c>
       <c r="C58">
-        <v>9.35</v>
+        <v>11.25</v>
       </c>
       <c r="D58">
-        <v>10.433</v>
+        <v>14.5</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1332,13 +1332,13 @@
         <v>2022</v>
       </c>
       <c r="B59" s="1">
-        <v>44621</v>
+        <v>44835</v>
       </c>
       <c r="C59">
-        <v>9.14</v>
+        <v>12.73</v>
       </c>
       <c r="D59">
-        <v>9.5</v>
+        <v>15.231999999999999</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1348,13 +1348,13 @@
         <v>2022</v>
       </c>
       <c r="B60" s="1">
-        <v>44593</v>
+        <v>44866</v>
       </c>
       <c r="C60">
-        <v>7.3929999999999998</v>
+        <v>17.023</v>
       </c>
       <c r="D60">
-        <v>7.3929999999999998</v>
+        <v>21.253</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1364,13 +1364,13 @@
         <v>2022</v>
       </c>
       <c r="B61" s="1">
-        <v>44562</v>
+        <v>44896</v>
       </c>
       <c r="C61">
-        <v>6.75</v>
+        <v>14.07</v>
       </c>
       <c r="D61">
-        <v>6.75</v>
+        <v>16.937000000000001</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1380,13 +1380,13 @@
         <v>2023</v>
       </c>
       <c r="B62" s="1">
-        <v>45261</v>
+        <v>44927</v>
       </c>
       <c r="C62">
-        <v>12.39</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>12.99</v>
+        <v>15.06</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1396,13 +1396,13 @@
         <v>2023</v>
       </c>
       <c r="B63" s="1">
-        <v>45231</v>
+        <v>44958</v>
       </c>
       <c r="C63">
-        <v>12.8</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>13.3</v>
+        <v>15.35</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1412,13 +1412,13 @@
         <v>2023</v>
       </c>
       <c r="B64" s="1">
-        <v>45200</v>
+        <v>44986</v>
       </c>
       <c r="C64">
-        <v>12.99</v>
+        <v>13.375</v>
       </c>
       <c r="D64">
-        <v>13.5</v>
+        <v>13.645</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1428,13 +1428,13 @@
         <v>2023</v>
       </c>
       <c r="B65" s="1">
-        <v>45170</v>
+        <v>45017</v>
       </c>
       <c r="C65">
-        <v>13.6</v>
+        <v>12.875</v>
       </c>
       <c r="D65">
-        <v>13.95</v>
+        <v>12.914999999999999</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1444,13 +1444,13 @@
         <v>2023</v>
       </c>
       <c r="B66" s="1">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="C66">
-        <v>13.225</v>
+        <v>12.47</v>
       </c>
       <c r="D66">
-        <v>13.425000000000001</v>
+        <v>12.47</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1460,13 +1460,13 @@
         <v>2023</v>
       </c>
       <c r="B67" s="1">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="C67">
-        <v>12.35</v>
+        <v>12.45</v>
       </c>
       <c r="D67">
-        <v>12.375</v>
+        <v>12.45</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1476,13 +1476,13 @@
         <v>2023</v>
       </c>
       <c r="B68" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="C68">
-        <v>12.45</v>
+        <v>12.35</v>
       </c>
       <c r="D68">
-        <v>12.45</v>
+        <v>12.375</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1492,13 +1492,13 @@
         <v>2023</v>
       </c>
       <c r="B69" s="1">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="C69">
-        <v>12.47</v>
+        <v>13.225</v>
       </c>
       <c r="D69">
-        <v>12.47</v>
+        <v>13.425000000000001</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -1508,13 +1508,13 @@
         <v>2023</v>
       </c>
       <c r="B70" s="1">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="C70">
-        <v>12.875</v>
+        <v>13.6</v>
       </c>
       <c r="D70">
-        <v>12.914999999999999</v>
+        <v>13.95</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -1524,13 +1524,13 @@
         <v>2023</v>
       </c>
       <c r="B71" s="1">
-        <v>44986</v>
+        <v>45200</v>
       </c>
       <c r="C71">
-        <v>13.375</v>
+        <v>12.99</v>
       </c>
       <c r="D71">
-        <v>13.645</v>
+        <v>13.5</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -1540,13 +1540,13 @@
         <v>2023</v>
       </c>
       <c r="B72" s="1">
-        <v>44958</v>
+        <v>45231</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>12.8</v>
       </c>
       <c r="D72">
-        <v>15.35</v>
+        <v>13.3</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -1556,13 +1556,13 @@
         <v>2023</v>
       </c>
       <c r="B73" s="1">
-        <v>44927</v>
+        <v>45261</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>12.39</v>
       </c>
       <c r="D73">
-        <v>15.06</v>
+        <v>12.99</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -1572,13 +1572,13 @@
         <v>2024</v>
       </c>
       <c r="B74" s="1">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="C74">
+        <v>12.69</v>
+      </c>
+      <c r="D74">
         <v>13.49</v>
-      </c>
-      <c r="D74">
-        <v>14.49</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -1604,13 +1604,13 @@
         <v>2024</v>
       </c>
       <c r="B76" s="1">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="C76">
-        <v>12.69</v>
+        <v>13.49</v>
       </c>
       <c r="D76">
-        <v>13.49</v>
+        <v>14.49</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
